--- a/HP/zj/2021.12.xlsx
+++ b/HP/zj/2021.12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -64,6 +64,24 @@
   </si>
   <si>
     <t>第二次去，送一台ACER显示器给用户。</t>
+  </si>
+  <si>
+    <t>无单（敏发微信）</t>
+  </si>
+  <si>
+    <t>2021.12.20</t>
+  </si>
+  <si>
+    <t>公司-电白区退役军人事务局-公司</t>
+  </si>
+  <si>
+    <t>林小姐</t>
+  </si>
+  <si>
+    <t>24*2</t>
+  </si>
+  <si>
+    <t>热温检测仪上门服务</t>
   </si>
   <si>
     <t>、</t>
@@ -718,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1279,13 +1297,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,11 +1706,14 @@
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1683,8 +1734,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1706,7 +1757,7 @@
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1758,19 +1809,35 @@
       <c r="H6" s="11">
         <v>44</v>
       </c>
-      <c r="I6" s="128" t="s">
+      <c r="I6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="69"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="11">
+        <v>48</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -1904,7 +1971,7 @@
     </row>
     <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
@@ -1916,11 +1983,11 @@
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(H6:I21)</f>
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.12.xlsx
+++ b/HP/zj/2021.12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>热温检测仪上门服务</t>
+  </si>
+  <si>
+    <t>2021.01.07</t>
+  </si>
+  <si>
+    <t>公司-工业大道东路2号富民智能家居广场-公司</t>
+  </si>
+  <si>
+    <t>杨先生</t>
+  </si>
+  <si>
+    <t>8*2</t>
+  </si>
+  <si>
+    <t>acer更换硬盘</t>
   </si>
   <si>
     <t>、</t>
@@ -736,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1297,43 +1312,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,13 +1691,7 @@
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1734,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1817,7 +1796,7 @@
       <c r="B7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="72" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1829,25 +1808,41 @@
       <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="11">
         <v>48</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="14">
+        <v>9330103</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11">
+        <v>16</v>
+      </c>
+      <c r="I8" s="128" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="75"/>
@@ -1971,7 +1966,7 @@
     </row>
     <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
@@ -1983,11 +1978,11 @@
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(H6:I21)</f>
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.12.xlsx
+++ b/HP/zj/2021.12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -84,7 +84,7 @@
     <t>热温检测仪上门服务</t>
   </si>
   <si>
-    <t>2021.01.07</t>
+    <t>2022.01.07</t>
   </si>
   <si>
     <t>公司-工业大道东路2号富民智能家居广场-公司</t>
@@ -97,6 +97,39 @@
   </si>
   <si>
     <t>acer更换硬盘</t>
+  </si>
+  <si>
+    <t>WO-016526110</t>
+  </si>
+  <si>
+    <t>2022.01.14</t>
+  </si>
+  <si>
+    <t>公司-高州市镇江镇767乡道恒润皇庭-公司</t>
+  </si>
+  <si>
+    <t>周柔冰</t>
+  </si>
+  <si>
+    <t>51*2</t>
+  </si>
+  <si>
+    <t>HP笔记本更换触摸板</t>
+  </si>
+  <si>
+    <t>2022.01.15</t>
+  </si>
+  <si>
+    <t>公司-电白区罗坑镇上三山部队-公司</t>
+  </si>
+  <si>
+    <t>任先生</t>
+  </si>
+  <si>
+    <t>85*2</t>
+  </si>
+  <si>
+    <t>清华同方主机1（蓝屏）：重装系统ok;主机2：更换主板，追加CPU。</t>
   </si>
   <si>
     <t>、</t>
@@ -751,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1312,13 +1345,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1691,7 +1754,13 @@
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1713,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1822,7 +1891,7 @@
       <c r="B8" s="14">
         <v>9330103</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="128" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1840,29 +1909,61 @@
       <c r="H8" s="11">
         <v>16</v>
       </c>
-      <c r="I8" s="128" t="s">
+      <c r="I8" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="11">
+        <v>102</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="14">
+        <v>3019699</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11">
+        <v>170</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
@@ -1966,7 +2067,7 @@
     </row>
     <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
@@ -1978,11 +2079,11 @@
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(H6:I21)</f>
-        <v>108</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2021.12.xlsx
+++ b/HP/zj/2021.12.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>2021年11月份旅差费</t>
   </si>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t>清华同方主机1（蓝屏）：重装系统ok;主机2：更换主板，追加CPU。</t>
+  </si>
+  <si>
+    <t>WO-016584486</t>
+  </si>
+  <si>
+    <t>2022.01.20</t>
+  </si>
+  <si>
+    <t>公司-高州市火星农场山美队162号-公司</t>
+  </si>
+  <si>
+    <t>谢奇雯</t>
+  </si>
+  <si>
+    <t>38*2</t>
+  </si>
+  <si>
+    <t>HP笔记本更换主板</t>
+  </si>
+  <si>
+    <t>第二次去：主机2：更换已追加的CPU。</t>
   </si>
   <si>
     <t>、</t>
@@ -156,7 +177,7 @@
     <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="39">
+  <fonts count="40" x14ac:knownFonts="40">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -285,6 +306,12 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color rgb="FF9C0006"/>
       <name val="永中宋体"/>
       <charset val="134"/>
@@ -784,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1210,6 +1237,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1327,36 +1369,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,46 +1625,49 @@
     <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="36" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="37" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="36" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="38" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
@@ -1661,82 +1676,85 @@
     <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1754,13 +1772,7 @@
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1783,7 +1795,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1891,7 +1903,7 @@
       <c r="B8" s="14">
         <v>9330103</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1920,7 +1932,7 @@
       <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1961,29 +1973,62 @@
       <c r="H10" s="11">
         <v>170</v>
       </c>
-      <c r="I10" s="130" t="s">
+      <c r="I10" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11">
+        <v>76</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="69"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+    <row r="12" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="14">
+        <v>3019699</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="11">
+        <v>170</v>
+      </c>
+      <c r="I12" s="130" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
@@ -2067,7 +2112,7 @@
     </row>
     <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
@@ -2079,11 +2124,11 @@
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(H6:I21)</f>
-        <v>380</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
